--- a/___Estadistica_1-Notas___/__Entregables__/Tarea#14/Tarea#14-DavidCorzo.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/Tarea#14/Tarea#14-DavidCorzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Entregables__\Tarea#14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A6C01-27FD-4ECF-9183-AC3BE77210D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05277FEF-A97D-4738-94D3-82F8F8C45E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -297,6 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -306,8 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,19 +1078,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA308AD-8E26-41AC-9B84-F127457D3829}">
   <dimension ref="B18:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:G29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>6</v>
       </c>
       <c r="D19" t="s">
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>4</v>
       </c>
       <c r="D20" t="s">
@@ -1113,7 +1114,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>6</v>
       </c>
       <c r="D21" t="s">
@@ -1125,12 +1126,12 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>7</v>
       </c>
       <c r="D23" t="s">
@@ -1141,7 +1142,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
       <c r="D24" t="s">
@@ -1153,7 +1154,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>6</v>
       </c>
       <c r="D25" t="s">
@@ -1165,7 +1166,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>3</v>
       </c>
       <c r="D26" t="s">
@@ -1177,12 +1178,12 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>8</v>
       </c>
       <c r="D28" t="s">
@@ -1194,7 +1195,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1213,197 +1214,197 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="13">
+      <c r="B41" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+      <c r="B42" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="13">
+      <c r="B43" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+      <c r="B44" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="13">
+      <c r="B47" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+      <c r="B48" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+      <c r="B49" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="13">
+      <c r="B50" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="13">
+      <c r="B51" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+      <c r="B52" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+      <c r="B53" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+      <c r="B55" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+      <c r="B56" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="13">
+      <c r="B57" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+      <c r="B58" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="13">
+      <c r="B59" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+      <c r="B60" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="13">
+      <c r="B61" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="13">
+      <c r="B62" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="13">
+      <c r="B63" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+      <c r="B64" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="13">
+      <c r="B65" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="13">
+      <c r="B66" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="13">
+      <c r="B67" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="13">
+      <c r="B68" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1814,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7F4CA-52BC-4DA7-A7C5-5474F0CAFB38}">
-  <dimension ref="B21:E38"/>
+  <dimension ref="B21:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,117 +1826,124 @@
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
         <v>21.06</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>22.24</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <v>20.62</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>21.66</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>21.23</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="14">
         <v>23.86</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
         <v>23.82</v>
       </c>
-      <c r="C24">
-        <v>23.3</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="14">
+        <v>20.3</v>
+      </c>
+      <c r="D24" s="14">
         <v>21.52</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>21.52</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>21.91</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <v>23.14</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
         <v>20.02</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>22.2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
         <v>22.37</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>22.19</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <v>22.34</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
         <v>23.36</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>23.44</v>
       </c>
       <c r="E28">
-        <f>COUNT(B22:D27,B28,C28)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <f>COUNT(B22:D27,B28,#REF!)</f>
+        <v>19</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="D29">
-        <f>AVERAGE(B22:D27,B28,C28)</f>
-        <v>22.15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="14">
+        <f>AVERAGE(B22:D27,C28,B28)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
-        <f>D29</f>
-        <v>22.15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="14">
+        <f>AVERAGE(B22:D26,B27:C28,D27)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31">
         <f>_xlfn.STDEV.S(B22:D27,B28,C28)</f>
-        <v>1.0796393159901039</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.1191350043201835</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>21</v>
       </c>
@@ -1967,7 +1975,7 @@
       </c>
       <c r="C36">
         <f>ABS(_xlfn.T.INV(C35,E28-1))</f>
-        <v>2.0930240544083087</v>
+        <v>2.1009220402410378</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1976,7 +1984,7 @@
       </c>
       <c r="C37">
         <f>C36*(C31/SQRT(E28))</f>
-        <v>0.50528675362071651</v>
+        <v>0.53940580569451391</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1985,14 +1993,14 @@
       </c>
       <c r="C38" s="1">
         <f>C30-C37</f>
-        <v>21.644713246379283</v>
+        <v>21.460594194305486</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1">
         <f>C30+C37</f>
-        <v>22.655286753620715</v>
+        <v>22.539405805694514</v>
       </c>
     </row>
   </sheetData>
@@ -2018,13 +2026,13 @@
   <sheetData>
     <row r="16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2194,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A902017B-54D3-42EE-A0B2-B23C69A7C2BD}">
   <dimension ref="B22:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/___Estadistica_1-Notas___/__Entregables__/Tarea#14/Tarea#14-DavidCorzo.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/Tarea#14/Tarea#14-DavidCorzo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Entregables__\Tarea#14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05277FEF-A97D-4738-94D3-82F8F8C45E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC4743-0BE1-43D3-8952-9A4604FDEEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -299,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -308,7 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7F4CA-52BC-4DA7-A7C5-5474F0CAFB38}">
   <dimension ref="B21:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A23" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,95 +1832,95 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>21.06</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>22.24</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>20.62</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>21.66</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>21.23</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>23.86</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>23.82</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>20.3</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>21.52</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>21.52</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>21.91</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>23.14</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>20.02</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>22.2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>21.2</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>22.37</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>22.19</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>22.34</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>23.36</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>23.44</v>
       </c>
       <c r="E28">
         <f>COUNT(B22:D27,B28,#REF!)</f>
         <v>19</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <f>AVERAGE(B22:D27,C28,B28)</f>
         <v>22</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <f>AVERAGE(B22:D26,B27:C28,D27)</f>
         <v>22</v>
       </c>
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B279D1F-83B4-4432-95AC-F7779B577003}">
   <dimension ref="B16:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,13 +2026,13 @@
   <sheetData>
     <row r="16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2161,6 +2161,10 @@
       </c>
       <c r="C29">
         <f>ABS(_xlfn.T.INV(C28,C23-1))</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="D29">
+        <f>_xlfn.T.INV(C26+C28,C23-1)</f>
         <v>2.0930240544083087</v>
       </c>
     </row>
